--- a/Assets/Data/shop_items.xlsx
+++ b/Assets/Data/shop_items.xlsx
@@ -1281,10 +1281,10 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,7 +1458,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="10">
-        <f t="shared" ref="H3:H33" si="0">IFERROR(E3/F3/S3,0)</f>
+        <f t="shared" ref="H3:H24" si="0">IFERROR(E3/F3/S3,0)</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="I3" s="10">

--- a/Assets/Data/shop_items.xlsx
+++ b/Assets/Data/shop_items.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="143">
   <si>
     <t>Name</t>
   </si>
@@ -141,24 +141,6 @@
     <t>Aus dem Raumfahrtzentrum Finkdenwerder gestohlen, es handelt eigentlich nur um Dreck in Staniolapier. Hast du zumindest so erpendelt.</t>
   </si>
   <si>
-    <t>reptiloiden</t>
-  </si>
-  <si>
-    <t>flatearth</t>
-  </si>
-  <si>
-    <t>MoonHoax</t>
-  </si>
-  <si>
-    <t>dankemerkel</t>
-  </si>
-  <si>
-    <t>freimaurer</t>
-  </si>
-  <si>
-    <t>illuminaten</t>
-  </si>
-  <si>
     <t>Kann kurzfristig die Wolkendecke öffnen, riecht leider etwas streng.</t>
   </si>
   <si>
@@ -418,6 +400,54 @@
   </si>
   <si>
     <t>Auf ebay gekauft, weil selbst fliegen Chemtrails unterstützt: Darauf kann man genau sehen, dass die Illuminaten alles im Griff haben.</t>
+  </si>
+  <si>
+    <t>#Reptiloiden sind unter uns!</t>
+  </si>
+  <si>
+    <t>Die Augen des Bürgermeisters #Reptiloid</t>
+  </si>
+  <si>
+    <t>Merkel ist ein #Reptiloid!</t>
+  </si>
+  <si>
+    <t>#Flatearth ist real, ihr Hater</t>
+  </si>
+  <si>
+    <t>#DankeMerkel</t>
+  </si>
+  <si>
+    <t>Wasseradern! Der Beweis! #Freimaurer</t>
+  </si>
+  <si>
+    <t>Ausgependelt! #Lügenpresse!</t>
+  </si>
+  <si>
+    <t>Da war niemand. #Moonlanding</t>
+  </si>
+  <si>
+    <t>Danke Dan Brown! #Illuminati</t>
+  </si>
+  <si>
+    <t>counter007</t>
+  </si>
+  <si>
+    <t>Alufolie, Wabenstruktur</t>
+  </si>
+  <si>
+    <t>Besser als ihre glatte Schwester, hält deutlich länger.</t>
+  </si>
+  <si>
+    <t>Dodekaeder, REINES GOLD</t>
+  </si>
+  <si>
+    <t>Schützt dich permanent von der fiesen Tachyonenkanone der Bundeswehr.</t>
+  </si>
+  <si>
+    <t>counter008</t>
+  </si>
+  <si>
+    <t>AssetLayer</t>
   </si>
 </sst>
 </file>
@@ -901,7 +931,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -923,6 +953,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="19" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="23" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1278,41 +1313,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="50.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="10" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1323,61 +1359,64 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -1385,57 +1424,57 @@
         <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>400</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="10">
-        <f>IFERROR(E2/F2/S2,0)</f>
+      <c r="I2" s="10">
+        <f>IFERROR(F2/G2/T2,0)</f>
         <v>16</v>
       </c>
-      <c r="I2" s="10">
-        <f>IFERROR(E2/G2,0)</f>
+      <c r="J2" s="10">
+        <f>IFERROR(F2/H2,0)</f>
         <v>400</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>10</v>
       </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
       <c r="M2" s="4">
         <v>0</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>20</v>
+      <c r="N2" s="4">
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="4">
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="T2" s="4">
         <v>5</v>
       </c>
-      <c r="T2" s="4">
+      <c r="U2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1443,57 +1482,57 @@
         <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>4000</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>60</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>12</v>
       </c>
-      <c r="H3" s="10">
-        <f t="shared" ref="H3:H24" si="0">IFERROR(E3/F3/S3,0)</f>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I26" si="0">IFERROR(F3/G3/T3,0)</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="I3" s="10">
-        <f t="shared" ref="I3:I33" si="1">IFERROR(E3/G3,0)</f>
+      <c r="J3" s="10">
+        <f t="shared" ref="J3:J35" si="1">IFERROR(F3/H3,0)</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>40</v>
       </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
       <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>20</v>
+      <c r="N3" s="4">
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="4">
-        <v>20</v>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="T3" s="4">
+        <v>20</v>
+      </c>
+      <c r="U3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1501,57 +1540,57 @@
         <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>40000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>700</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>150</v>
       </c>
-      <c r="H4" s="10">
+      <c r="I4" s="10">
         <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="I4" s="10">
+      <c r="J4" s="10">
         <f t="shared" si="1"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>100</v>
       </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
       <c r="M4" s="4">
         <v>0</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>20</v>
+      <c r="N4" s="4">
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="4">
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="T4" s="4">
         <v>80</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -1559,57 +1598,57 @@
         <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>300</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J5" s="10">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>15</v>
       </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
       <c r="M5" s="4">
         <v>0</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>20</v>
+      <c r="N5" s="4">
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="4">
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="T5" s="4">
         <v>5</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1617,57 +1656,57 @@
         <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>400</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>12</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="10">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J6" s="10">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>30</v>
       </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
       <c r="M6" s="4">
         <v>0</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>20</v>
+      <c r="N6" s="4">
+        <v>0</v>
       </c>
       <c r="O6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="4">
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="T6" s="4">
         <v>10</v>
       </c>
-      <c r="T6" s="4">
+      <c r="U6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -1675,57 +1714,57 @@
         <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>666</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>24</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>2</v>
       </c>
-      <c r="H7" s="10">
+      <c r="I7" s="10">
         <f t="shared" si="0"/>
         <v>5.55</v>
       </c>
-      <c r="I7" s="10">
+      <c r="J7" s="10">
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>13</v>
       </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
       <c r="M7" s="4">
         <v>0</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>20</v>
+      <c r="N7" s="4">
+        <v>0</v>
       </c>
       <c r="O7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="4">
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="T7" s="4">
         <v>5</v>
       </c>
-      <c r="T7" s="4">
+      <c r="U7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -1733,57 +1772,57 @@
         <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>1000</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>50</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>5</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I8" s="10">
+      <c r="J8" s="10">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>13</v>
       </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
       <c r="M8" s="4">
         <v>0</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>20</v>
+      <c r="N8" s="4">
+        <v>0</v>
       </c>
       <c r="O8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S8" s="4">
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="T8" s="4">
         <v>5</v>
       </c>
-      <c r="T8" s="4">
+      <c r="U8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -1791,173 +1830,170 @@
         <v>39</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>500</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>30</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="I9" s="10">
+      <c r="J9" s="10">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>90</v>
       </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
       <c r="M9" s="4">
         <v>0</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>20</v>
+      <c r="N9" s="4">
+        <v>0</v>
       </c>
       <c r="O9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S9" s="4">
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" s="4">
         <v>5</v>
       </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
       <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>50</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>9</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
         <f t="shared" si="0"/>
         <v>0.18518518518518517</v>
       </c>
-      <c r="I10" s="10">
+      <c r="J10" s="10">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>130</v>
       </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
       <c r="M10" s="4">
         <v>0</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>20</v>
+      <c r="N10" s="4">
+        <v>0</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="4">
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="T10" s="4">
         <v>30</v>
       </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
       <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="2">
+        <v>101</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2">
         <v>200</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="10">
+      <c r="J11" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
       <c r="L11" s="2">
         <v>0</v>
       </c>
       <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
         <v>60</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
+      <c r="P11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
@@ -1965,60 +2001,60 @@
       <c r="U11" s="2">
         <v>0</v>
       </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="2">
+        <v>103</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2">
         <v>200</v>
       </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="10">
+      <c r="J12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
         <v>60</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
+      <c r="P12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
@@ -2026,60 +2062,60 @@
       <c r="U12" s="2">
         <v>0</v>
       </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>200</v>
       </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="10">
+      <c r="J13" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>60</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
@@ -2087,1200 +2123,1328 @@
       <c r="U13" s="2">
         <v>0</v>
       </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2">
+        <v>200</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" ref="I14" si="2">IFERROR(F14/G14/T14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" ref="J14" si="3">IFERROR(F14/H14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>60</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2">
+        <v>900</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>240</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2">
+        <v>200</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" ref="I16" si="4">IFERROR(F16/G16/T16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" ref="J16" si="5">IFERROR(F16/H16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>60</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2">
+        <v>200</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>60</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="6">
+        <v>23</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>5</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19" s="6">
+        <v>0</v>
+      </c>
+      <c r="U19" s="6">
+        <v>0</v>
+      </c>
+      <c r="V19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2500</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>10</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="T20" s="6">
+        <v>0</v>
+      </c>
+      <c r="U20" s="6">
+        <v>0</v>
+      </c>
+      <c r="V20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="6">
+        <v>8000</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>30</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <v>0</v>
+      </c>
+      <c r="U21" s="6">
+        <v>0</v>
+      </c>
+      <c r="V21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="6">
+        <v>75000</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>90</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="T22" s="6">
+        <v>0</v>
+      </c>
+      <c r="U22" s="6">
+        <v>0</v>
+      </c>
+      <c r="V22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="2">
-        <v>200</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="E23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="6">
+        <v>250000</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="10">
+      <c r="J23" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>60</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
+      <c r="L23" s="6">
+        <v>180</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="T23" s="6">
+        <v>0</v>
+      </c>
+      <c r="U23" s="6">
+        <v>0</v>
+      </c>
+      <c r="V23" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="24" spans="1:22" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="2">
-        <v>200</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="E24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="6">
+        <v>900000</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="10">
+      <c r="J24" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>60</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
+      <c r="L24" s="6">
+        <v>320</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="T24" s="6">
+        <v>0</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0</v>
+      </c>
+      <c r="V24" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="25" spans="1:22" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="2">
-        <v>200</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="E25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1300000</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="10">
+      <c r="J25" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>60</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
+      <c r="L25" s="6">
+        <v>900</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="T25" s="6">
+        <v>0</v>
+      </c>
+      <c r="U25" s="6">
+        <v>0</v>
+      </c>
+      <c r="V25" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="6">
-        <v>23</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
+    <row r="26" spans="1:22" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1900000</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="10">
+      <c r="J26" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="6">
-        <v>5</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="6">
-        <v>0</v>
-      </c>
-      <c r="S17" s="6">
-        <v>0</v>
-      </c>
-      <c r="T17" s="6">
-        <v>0</v>
-      </c>
-      <c r="U17" s="6">
+      <c r="L26" s="6">
+        <v>1500</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="T26" s="6">
+        <v>0</v>
+      </c>
+      <c r="U26" s="6">
+        <v>0</v>
+      </c>
+      <c r="V26" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="6">
-        <v>2500</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <v>10</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="S18" s="6">
-        <v>0</v>
-      </c>
-      <c r="T18" s="6">
-        <v>0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="6" t="s">
+    <row r="27" spans="1:22" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="6">
-        <v>8000</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>30</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
-        <v>0</v>
-      </c>
-      <c r="T19" s="6">
-        <v>0</v>
-      </c>
-      <c r="U19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="6">
-        <v>75000</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="E27" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="S20" s="6">
-        <v>0</v>
-      </c>
-      <c r="T20" s="6">
-        <v>0</v>
-      </c>
-      <c r="U20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="6">
-        <v>250000</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <v>180</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0</v>
-      </c>
-      <c r="S21" s="6">
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
-        <v>0</v>
-      </c>
-      <c r="U21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="6">
-        <v>900000</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>320</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="S22" s="6">
-        <v>0</v>
-      </c>
-      <c r="T22" s="6">
-        <v>0</v>
-      </c>
-      <c r="U22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1300000</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
-        <v>900</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="6">
-        <v>0</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0</v>
-      </c>
-      <c r="T23" s="6">
-        <v>0</v>
-      </c>
-      <c r="U23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1900000</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L24" s="6">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="6">
-        <v>0</v>
-      </c>
-      <c r="S24" s="6">
-        <v>0</v>
-      </c>
-      <c r="T24" s="6">
-        <v>0</v>
-      </c>
-      <c r="U24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="F27" s="8">
         <v>50</v>
       </c>
-      <c r="F25" s="8">
+      <c r="G27" s="8">
         <v>50</v>
       </c>
-      <c r="G25" s="8">
+      <c r="H27" s="8">
         <v>1</v>
       </c>
-      <c r="H25" s="10">
-        <f>IFERROR(E25/F25,0)</f>
+      <c r="I27" s="10">
+        <f>IFERROR(F27/G27,0)</f>
         <v>1</v>
       </c>
-      <c r="I25" s="10">
+      <c r="J27" s="10">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K25" s="8">
+      <c r="L27" s="8">
         <v>5</v>
       </c>
-      <c r="L25" s="8">
+      <c r="M27" s="8">
         <v>5</v>
       </c>
-      <c r="M25" s="8">
-        <v>0</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P25" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>0</v>
-      </c>
-      <c r="S25" s="8">
-        <v>0</v>
-      </c>
-      <c r="T25" s="8">
-        <v>0</v>
-      </c>
-      <c r="U25" s="8">
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0</v>
+      </c>
+      <c r="T27" s="8">
+        <v>0</v>
+      </c>
+      <c r="U27" s="8">
+        <v>0</v>
+      </c>
+      <c r="V27" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="8">
+    <row r="28" spans="1:22" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="8">
         <v>500</v>
       </c>
-      <c r="F26" s="8">
+      <c r="G28" s="8">
         <v>900</v>
       </c>
-      <c r="G26" s="8">
+      <c r="H28" s="8">
         <v>5</v>
       </c>
-      <c r="H26" s="10">
-        <f t="shared" ref="H26:H33" si="2">IFERROR(E26/F26,0)</f>
+      <c r="I28" s="10">
+        <f t="shared" ref="I28:I35" si="6">IFERROR(F28/G28,0)</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="I26" s="10">
+      <c r="J28" s="10">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K26" s="8">
+      <c r="L28" s="8">
         <v>10</v>
       </c>
-      <c r="L26" s="8">
+      <c r="M28" s="8">
         <v>10</v>
       </c>
-      <c r="M26" s="8">
-        <v>0</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>0</v>
-      </c>
-      <c r="S26" s="8">
-        <v>0</v>
-      </c>
-      <c r="T26" s="8">
-        <v>0</v>
-      </c>
-      <c r="U26" s="8">
+      <c r="N28" s="8">
+        <v>0</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0</v>
+      </c>
+      <c r="T28" s="8">
+        <v>0</v>
+      </c>
+      <c r="U28" s="8">
+        <v>0</v>
+      </c>
+      <c r="V28" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="8">
+    <row r="29" spans="1:22" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="8">
         <v>5000</v>
       </c>
-      <c r="F27" s="8">
+      <c r="G29" s="8">
         <v>1600</v>
       </c>
-      <c r="G27" s="8">
+      <c r="H29" s="8">
         <v>8</v>
       </c>
-      <c r="H27" s="10">
-        <f t="shared" si="2"/>
+      <c r="I29" s="10">
+        <f t="shared" si="6"/>
         <v>3.125</v>
       </c>
-      <c r="I27" s="10">
+      <c r="J29" s="10">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
-      <c r="K27" s="8">
-        <v>20</v>
-      </c>
-      <c r="L27" s="8">
-        <v>20</v>
-      </c>
-      <c r="M27" s="8">
-        <v>0</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="8">
-        <v>0</v>
-      </c>
-      <c r="S27" s="8">
-        <v>0</v>
-      </c>
-      <c r="T27" s="8">
-        <v>0</v>
-      </c>
-      <c r="U27" s="8">
+      <c r="L29" s="8">
+        <v>20</v>
+      </c>
+      <c r="M29" s="8">
+        <v>20</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>0</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+      <c r="T29" s="8">
+        <v>0</v>
+      </c>
+      <c r="U29" s="8">
+        <v>0</v>
+      </c>
+      <c r="V29" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="8">
+    <row r="30" spans="1:22" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="8">
         <v>50000</v>
       </c>
-      <c r="F28" s="8">
+      <c r="G30" s="8">
         <v>3200</v>
       </c>
-      <c r="G28" s="8">
+      <c r="H30" s="8">
         <v>15</v>
       </c>
-      <c r="H28" s="10">
-        <f t="shared" si="2"/>
+      <c r="I30" s="10">
+        <f t="shared" si="6"/>
         <v>15.625</v>
       </c>
-      <c r="I28" s="10">
+      <c r="J30" s="10">
         <f t="shared" si="1"/>
         <v>3333.3333333333335</v>
       </c>
-      <c r="K28" s="8">
+      <c r="L30" s="8">
         <v>40</v>
       </c>
-      <c r="L28" s="8">
+      <c r="M30" s="8">
         <v>40</v>
       </c>
-      <c r="M28" s="8">
-        <v>0</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>0</v>
-      </c>
-      <c r="S28" s="8">
-        <v>0</v>
-      </c>
-      <c r="T28" s="8">
-        <v>0</v>
-      </c>
-      <c r="U28" s="8">
+      <c r="N30" s="8">
+        <v>0</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+      <c r="T30" s="8">
+        <v>0</v>
+      </c>
+      <c r="U30" s="8">
+        <v>0</v>
+      </c>
+      <c r="V30" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="8">
+    <row r="31" spans="1:22" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="8">
         <v>500000</v>
       </c>
-      <c r="F29" s="8">
+      <c r="G31" s="8">
         <v>5000</v>
       </c>
-      <c r="G29" s="8">
+      <c r="H31" s="8">
         <v>5</v>
       </c>
-      <c r="H29" s="10">
-        <f t="shared" si="2"/>
+      <c r="I31" s="10">
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="I29" s="10">
+      <c r="J31" s="10">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="K29" s="8">
+      <c r="L31" s="8">
         <v>40</v>
       </c>
-      <c r="L29" s="8">
+      <c r="M31" s="8">
         <v>80</v>
       </c>
-      <c r="M29" s="8">
-        <v>0</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="8">
-        <v>0</v>
-      </c>
-      <c r="S29" s="8">
-        <v>0</v>
-      </c>
-      <c r="T29" s="8">
-        <v>0</v>
-      </c>
-      <c r="U29" s="8">
+      <c r="N31" s="8">
+        <v>0</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0</v>
+      </c>
+      <c r="T31" s="8">
+        <v>0</v>
+      </c>
+      <c r="U31" s="8">
+        <v>0</v>
+      </c>
+      <c r="V31" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="8">
+    <row r="32" spans="1:22" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="8">
         <v>900000</v>
       </c>
-      <c r="F30" s="8">
+      <c r="G32" s="8">
         <v>89874</v>
       </c>
-      <c r="G30" s="8">
+      <c r="H32" s="8">
         <v>5</v>
       </c>
-      <c r="H30" s="10">
-        <f t="shared" si="2"/>
+      <c r="I32" s="10">
+        <f t="shared" si="6"/>
         <v>10.01401962747847</v>
       </c>
-      <c r="I30" s="10">
+      <c r="J32" s="10">
         <f t="shared" si="1"/>
         <v>180000</v>
       </c>
-      <c r="K30" s="8">
+      <c r="L32" s="8">
         <v>40</v>
       </c>
-      <c r="L30" s="8">
+      <c r="M32" s="8">
         <v>150</v>
       </c>
-      <c r="M30" s="8">
-        <v>0</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>0</v>
-      </c>
-      <c r="S30" s="8">
-        <v>0</v>
-      </c>
-      <c r="T30" s="8">
-        <v>0</v>
-      </c>
-      <c r="U30" s="8">
+      <c r="N32" s="8">
+        <v>0</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="T32" s="8">
+        <v>0</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0</v>
+      </c>
+      <c r="V32" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="33" spans="1:22" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="8">
+      <c r="F33" s="8">
         <v>2000</v>
       </c>
-      <c r="F31" s="8">
+      <c r="G33" s="8">
         <v>250</v>
       </c>
-      <c r="G31" s="8">
+      <c r="H33" s="8">
         <v>40</v>
       </c>
-      <c r="H31" s="10">
-        <f t="shared" si="2"/>
+      <c r="I33" s="10">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I31" s="10">
+      <c r="J33" s="10">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K31" s="8">
+      <c r="L33" s="8">
         <v>40</v>
       </c>
-      <c r="L31" s="8">
+      <c r="M33" s="8">
         <v>220</v>
       </c>
-      <c r="M31" s="8">
+      <c r="N33" s="8">
         <v>60</v>
       </c>
-      <c r="N31" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="O31" s="8" t="s">
+      <c r="O33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P31" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>0</v>
-      </c>
-      <c r="S31" s="8">
-        <v>0</v>
-      </c>
-      <c r="T31" s="8">
-        <v>0</v>
-      </c>
-      <c r="U31" s="8">
+      <c r="Q33" s="8">
+        <v>0</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0</v>
+      </c>
+      <c r="T33" s="8">
+        <v>0</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0</v>
+      </c>
+      <c r="V33" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="8">
+    <row r="34" spans="1:22" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="8">
         <v>30000</v>
       </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
         <v>5</v>
       </c>
-      <c r="H32" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="10">
+      <c r="I34" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="K32" s="8">
+      <c r="L34" s="8">
         <v>40</v>
       </c>
-      <c r="L32" s="8">
+      <c r="M34" s="8">
         <v>300</v>
       </c>
-      <c r="M32" s="8">
-        <v>0</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>0</v>
-      </c>
-      <c r="S32" s="8">
-        <v>0</v>
-      </c>
-      <c r="T32" s="8">
-        <v>0</v>
-      </c>
-      <c r="U32" s="8">
+      <c r="N34" s="8">
+        <v>0</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>0</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+      <c r="T34" s="8">
+        <v>0</v>
+      </c>
+      <c r="U34" s="8">
+        <v>0</v>
+      </c>
+      <c r="V34" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="8">
+    <row r="35" spans="1:22" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="8">
         <v>1000000</v>
       </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
         <v>5</v>
       </c>
-      <c r="H33" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="10">
+      <c r="I35" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="10">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
-      <c r="K33" s="8">
+      <c r="L35" s="8">
         <v>40</v>
       </c>
-      <c r="L33" s="8">
+      <c r="M35" s="8">
         <v>5</v>
       </c>
-      <c r="M33" s="8">
-        <v>0</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="8">
-        <v>0</v>
-      </c>
-      <c r="S33" s="8">
-        <v>0</v>
-      </c>
-      <c r="T33" s="8">
-        <v>0</v>
-      </c>
-      <c r="U33" s="8">
+      <c r="N35" s="8">
+        <v>0</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0</v>
+      </c>
+      <c r="T35" s="8">
+        <v>0</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0</v>
+      </c>
+      <c r="V35" s="8">
         <v>0</v>
       </c>
     </row>
